--- a/elements_information.xlsx
+++ b/elements_information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\parse_chemical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\chemical\Parse-perovskite-chemical-formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,15 +128,6 @@
     <t>Volume_of_atom</t>
   </si>
   <si>
-    <t>Nuclear_charge_effective(Slater)</t>
-  </si>
-  <si>
-    <t>Distance_from_core_electron(Schubert)</t>
-  </si>
-  <si>
-    <t>Distance_from_valence_electron(Schubert)</t>
-  </si>
-  <si>
     <t>Electron_affinity</t>
   </si>
   <si>
@@ -153,6 +144,15 @@
   </si>
   <si>
     <t>%_covalent_Martynov&amp;Batsanov</t>
+  </si>
+  <si>
+    <t>Nuclear_charge_effectiveSlater</t>
+  </si>
+  <si>
+    <t>Distance_from_core_electronSchubert</t>
+  </si>
+  <si>
+    <t>Distance_from_valence_electronSchubert</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -581,31 +581,31 @@
         <v>33</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="M1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="N1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>0</v>
